--- a/Dec_wise_clusters.xlsx
+++ b/Dec_wise_clusters.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ISPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharv\Documents\GitHub\ISPS2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{348EF07E-50F8-40FE-9217-D8BEF8442730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6980462B-221B-4865-B98A-F54AA19371D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{DF0D7691-CBC8-4879-BCD4-2BD7F1FC06BE}"/>
+    <workbookView xWindow="24583" yWindow="-103" windowWidth="22148" windowHeight="11829" activeTab="1" xr2:uid="{DF0D7691-CBC8-4879-BCD4-2BD7F1FC06BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec_wise_clusters" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="82">
   <si>
     <t>City</t>
   </si>
@@ -227,6 +239,45 @@
   </si>
   <si>
     <t>Kakinada</t>
+  </si>
+  <si>
+    <t>Change in Clusters</t>
+  </si>
+  <si>
+    <t>Quartile Values</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>1964-1973</t>
+  </si>
+  <si>
+    <t>1974-1983</t>
+  </si>
+  <si>
+    <t>1984-1993</t>
+  </si>
+  <si>
+    <t>1994-2004</t>
+  </si>
+  <si>
+    <t>2004-2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1954-1963      </t>
+  </si>
+  <si>
+    <t>2014-2023</t>
+  </si>
+  <si>
+    <t>Decade</t>
   </si>
 </sst>
 </file>
@@ -369,7 +420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,6 +600,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -710,8 +767,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -757,7 +815,15 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1067,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9B37F4-8F0B-4FE8-A4AA-B9CEA3FDC3D8}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A10" zoomScale="50" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1090,9 +1156,10 @@
     <col min="14" max="14" width="11.06640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1138,58 +1205,65 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="R1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>62</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1">
         <v>41</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2">
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2">
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="1">
         <v>54</v>
       </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="1" t="str">
+        <f>IF(AND(D2=F2, F2=H2, H2=J2, J2=L2, L2=N2, N2=P2), "Same", "Change")</f>
+        <v>Same</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1238,8 +1312,12 @@
       <c r="P3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R51" si="0">IF(AND(D3=F3, F3=H3, H3=J3, J3=L3, L3=N3, N3=P3), "Same", "Change")</f>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1288,8 +1366,12 @@
       <c r="P4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R4" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1338,8 +1420,12 @@
       <c r="P5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1388,8 +1474,12 @@
       <c r="P6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R6" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1438,8 +1528,12 @@
       <c r="P7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1488,8 +1582,12 @@
       <c r="P8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R8" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1538,8 +1636,12 @@
       <c r="P9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1588,58 +1690,66 @@
       <c r="P10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="R10" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11">
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1">
         <v>13</v>
       </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1">
         <v>11</v>
       </c>
-      <c r="L11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11">
+      <c r="L11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="1">
         <v>22</v>
       </c>
-      <c r="N11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11">
+      <c r="N11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="1">
         <v>6</v>
       </c>
-      <c r="P11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Same</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1688,8 +1798,12 @@
       <c r="P12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R12" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1738,8 +1852,12 @@
       <c r="P13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R13" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1788,8 +1906,12 @@
       <c r="P14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R14" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1838,8 +1960,12 @@
       <c r="P15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R15" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1888,8 +2014,12 @@
       <c r="P16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R16" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1938,8 +2068,12 @@
       <c r="P17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R17" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1988,8 +2122,12 @@
       <c r="P18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R18" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2038,8 +2176,12 @@
       <c r="P19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R19" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2088,8 +2230,12 @@
       <c r="P20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R20" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2138,8 +2284,12 @@
       <c r="P21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R21" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2188,8 +2338,12 @@
       <c r="P22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R22" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2238,8 +2392,12 @@
       <c r="P23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R23" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2288,58 +2446,66 @@
       <c r="P24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A25">
+      <c r="R24" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Same</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2388,8 +2554,12 @@
       <c r="P26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R26" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2438,8 +2608,12 @@
       <c r="P27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R27" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2488,58 +2662,66 @@
       <c r="P28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A29">
+      <c r="R28" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>30</v>
       </c>
-      <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1">
         <v>21</v>
       </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1">
         <v>14</v>
       </c>
-      <c r="H29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29">
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1">
         <v>28</v>
       </c>
-      <c r="J29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29">
+      <c r="J29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="1">
         <v>38</v>
       </c>
-      <c r="L29" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29">
+      <c r="L29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="1">
         <v>29</v>
       </c>
-      <c r="N29" t="s">
-        <v>16</v>
-      </c>
-      <c r="O29">
+      <c r="N29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="1">
         <v>26</v>
       </c>
-      <c r="P29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Same</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2588,8 +2770,12 @@
       <c r="P30" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R30" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2638,58 +2824,66 @@
       <c r="P31" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A32">
+      <c r="R31" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>51</v>
       </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1">
         <v>32</v>
       </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="1">
         <v>33</v>
       </c>
-      <c r="H32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32">
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="1">
         <v>24</v>
       </c>
-      <c r="J32" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32">
+      <c r="J32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="1">
         <v>27</v>
       </c>
-      <c r="L32" t="s">
-        <v>16</v>
-      </c>
-      <c r="M32">
+      <c r="L32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="1">
         <v>28</v>
       </c>
-      <c r="N32" t="s">
-        <v>16</v>
-      </c>
-      <c r="O32">
+      <c r="N32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="1">
         <v>50</v>
       </c>
-      <c r="P32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Same</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2738,8 +2932,12 @@
       <c r="P33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R33" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2788,8 +2986,12 @@
       <c r="P34" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R34" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2838,8 +3040,12 @@
       <c r="P35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R35" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2888,8 +3094,12 @@
       <c r="P36" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R36" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2938,8 +3148,12 @@
       <c r="P37" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R37" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2988,8 +3202,12 @@
       <c r="P38" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R38" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3038,8 +3256,12 @@
       <c r="P39" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R39" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3088,8 +3310,12 @@
       <c r="P40" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R40" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3138,8 +3364,12 @@
       <c r="P41" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R41" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3188,8 +3418,12 @@
       <c r="P42" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R42" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3238,58 +3472,66 @@
       <c r="P43" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A44">
+      <c r="R43" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44" t="s">
-        <v>20</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44" t="s">
-        <v>20</v>
-      </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="P44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Same</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3338,8 +3580,12 @@
       <c r="P45" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R45" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3388,8 +3634,12 @@
       <c r="P46" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R46" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3438,58 +3688,66 @@
       <c r="P47" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A48">
+      <c r="R47" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48" t="s">
-        <v>20</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Same</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3538,8 +3796,12 @@
       <c r="P49" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R49" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3588,8 +3850,12 @@
       <c r="P50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R50" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3637,6 +3903,158 @@
       </c>
       <c r="P51" t="s">
         <v>19</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="0"/>
+        <v>Change</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="R1:R51">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="&quot;Change&quot;"/>
+        <cfvo type="formula" val="&quot;No Change&quot;"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="expression" priority="3">
+      <formula>IF(AND(D2=F2, F2=H2, H2=J2, J2=L2, L2=N2, N2=P2), "No Change", "Change")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R51">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",R2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16204D3-3538-4E5F-8878-893B957C32E8}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>4.75</v>
+      </c>
+      <c r="C6">
+        <v>4.75</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>8.75</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
